--- a/mbs-perturbation/bloated/elm/bloated_elm_lin_results.xlsx
+++ b/mbs-perturbation/bloated/elm/bloated_elm_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8507949449653486</v>
+        <v>0.9409041394335512</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9756006006006006</v>
+        <v>0.8796153846153847</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9225524475524476</v>
+        <v>0.9333204483958254</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5517241379310346</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9106807511737091</v>
+        <v>0.9674355495251017</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8672222222222222</v>
+        <v>0.98625</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.692063492063492</v>
+        <v>0.8057142857142857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3779020979020979</v>
+        <v>0.4321289821289822</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4760591133004927</v>
+        <v>0.5562573099415205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9053701933028655</v>
+        <v>0.9415051043939726</v>
       </c>
     </row>
   </sheetData>
